--- a/Scrum board.xlsx
+++ b/Scrum board.xlsx
@@ -36,7 +36,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Done By:</t>
+    <t>Done By</t>
   </si>
   <si>
     <t>Identify 3 patterns and
@@ -203,6 +203,14 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -217,14 +225,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -292,35 +292,29 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -334,9 +328,6 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="6" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,7 +566,7 @@
     <col customWidth="1" min="7" max="7" width="16.29"/>
     <col customWidth="1" min="8" max="8" width="8.71"/>
     <col customWidth="1" min="9" max="9" width="20.86"/>
-    <col customWidth="1" min="10" max="11" width="8.71"/>
+    <col customWidth="1" min="10" max="11" width="16.86"/>
     <col customWidth="1" min="12" max="12" width="17.86"/>
     <col customWidth="1" min="13" max="13" width="8.71"/>
     <col customWidth="1" min="14" max="14" width="16.86"/>
@@ -617,111 +608,109 @@
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="6"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="9"/>
+      <c r="N3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="60.0" customHeight="1">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="10"/>
       <c r="K4" s="6"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="60.0" customHeight="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="13"/>
+      <c r="N5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="60.0" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="H6" s="22" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="17"/>
-      <c r="N6" s="23" t="s">
+      <c r="K6" s="13"/>
+      <c r="N6" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="60.0" customHeight="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="28" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="26"/>
-      <c r="N7" s="30" t="s">
+      <c r="K7" s="24"/>
+      <c r="N7" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="60.0" customHeight="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" ht="60.0" customHeight="1">
-      <c r="D9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="D9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" ht="60.0" customHeight="1">
-      <c r="D10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="D10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" ht="60.0" customHeight="1">
-      <c r="D11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="D11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -1719,24 +1708,23 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="D10:E10"/>
@@ -1754,6 +1742,7 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
